--- a/文法（ぶんぽう）/动词变形规则.xlsx
+++ b/文法（ぶんぽう）/动词变形规则.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C01E92-7151-4891-8078-A0EE3E88A611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325E3070-E321-4B1D-8EA4-B7787ACEDC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="0" windowWidth="17280" windowHeight="12360" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="变形粗筋" sheetId="2" r:id="rId1"/>
@@ -3035,32 +3035,6 @@
   </si>
   <si>
     <r>
-      <t>可以做…「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>？」</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>表达</t>
     </r>
     <r>
@@ -3952,10 +3926,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>「動詞未然形」+せんか？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>「動詞未然形」+しょう！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4306,10 +4276,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>音楽を聴きながら、</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>动作的方向性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4365,6 +4331,40 @@
   </si>
   <si>
     <t>た形+ばかり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音楽を聴きながら、ご飯を食べます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞未然形」+ませんか？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可以做…「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>？」</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5084,8 +5084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0552E9B1-4AF6-4190-816A-D4AA06C3E222}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5143,13 +5143,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B4" s="39" t="s">
         <v>612</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>602</v>
@@ -5157,13 +5157,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>595</v>
@@ -5171,24 +5171,24 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="40" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="16" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5196,13 +5196,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="16" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>603</v>
@@ -5210,13 +5210,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>604</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="39" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>623</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="39" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>600</v>
@@ -5285,15 +5285,15 @@
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="16" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" s="39" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>180</v>
@@ -5301,22 +5301,22 @@
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="39" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="1" t="s">
-        <v>625</v>
+      <c r="B20" s="39" t="s">
+        <v>695</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="39" t="s">
         <v>598</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5328,26 +5328,26 @@
         <v>236</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" s="39" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="16" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5358,21 +5358,21 @@
         <v>614</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>615</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="39" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>617</v>
@@ -5383,13 +5383,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="39" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>618</v>
@@ -5403,15 +5403,15 @@
         <v>312</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5424,7 +5424,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="39" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>611</v>
@@ -5438,7 +5438,7 @@
         <v>363</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5449,7 +5449,7 @@
         <v>408</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5457,32 +5457,32 @@
         <v>613</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D34" t="s">
+        <v>650</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="B35" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>660</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18.600000000000001" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>619</v>
@@ -5496,16 +5496,16 @@
     </row>
     <row r="37" spans="1:5" ht="18.600000000000001" customHeight="1">
       <c r="B37" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>656</v>
-      </c>
       <c r="D37" s="19" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1">
@@ -5515,26 +5515,26 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="B40" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>637</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>605</v>
@@ -5542,10 +5542,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="B42" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>607</v>
@@ -5553,10 +5553,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="B43" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>606</v>
@@ -5564,10 +5564,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="B44" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>609</v>
@@ -5575,10 +5575,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="B45" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>608</v>
@@ -5586,25 +5586,25 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="B47" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>549</v>

--- a/文法（ぶんぽう）/动词变形规则.xlsx
+++ b/文法（ぶんぽう）/动词变形规则.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325E3070-E321-4B1D-8EA4-B7787ACEDC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65812C6-CB9B-4FA5-AB6E-F214A6CA743F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="变形粗筋" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="ば形" sheetId="10" r:id="rId10"/>
     <sheet name="可能形" sheetId="11" r:id="rId11"/>
     <sheet name="被动形" sheetId="12" r:id="rId12"/>
+    <sheet name="使役形" sheetId="14" r:id="rId13"/>
+    <sheet name="使役被动形" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="798">
   <si>
     <t>一类动词</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3931,9 +3933,6 @@
   </si>
   <si>
     <r>
-      <t>表示</t>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
@@ -3941,7 +3940,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>险</t>
+      <t>动</t>
     </r>
     <r>
       <rPr>
@@ -3951,11 +3950,8 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>些做…「仮定」</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>作的先后（</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3964,7 +3960,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>动</t>
+      <t>连</t>
     </r>
     <r>
       <rPr>
@@ -3974,7 +3970,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>作的先后（</t>
+      <t>接</t>
     </r>
     <r>
       <rPr>
@@ -3984,7 +3980,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>连</t>
+      <t>两</t>
     </r>
     <r>
       <rPr>
@@ -3994,7 +3990,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>接</t>
+      <t>个</t>
     </r>
     <r>
       <rPr>
@@ -4004,7 +4000,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>两</t>
+      <t>动</t>
     </r>
     <r>
       <rPr>
@@ -4014,7 +4010,13 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>个</t>
+      <t>作）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>因果的先后（</t>
     </r>
     <r>
       <rPr>
@@ -4024,7 +4026,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>动</t>
+      <t>连</t>
     </r>
     <r>
       <rPr>
@@ -4034,14 +4036,11 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>作）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>因果的先后（</t>
-    </r>
+      <t>接因和果）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4050,7 +4049,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>连</t>
+      <t>请给</t>
     </r>
     <r>
       <rPr>
@@ -4060,7 +4059,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>接因和果）</t>
+      <t>我…</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4073,7 +4072,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>请给</t>
+      <t>请</t>
     </r>
     <r>
       <rPr>
@@ -4083,11 +4082,18 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>我…</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>做…</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>だ形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最好</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4096,7 +4102,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>请</t>
+      <t>还</t>
     </r>
     <r>
       <rPr>
@@ -4106,17 +4112,41 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>做…</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>だ形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>最好</t>
+      <t>是做…</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>た形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+ほうがいい</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞ない形→なく」+て、…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>没…的状</t>
     </r>
     <r>
       <rPr>
@@ -4126,7 +4156,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>还</t>
+      <t>态</t>
     </r>
     <r>
       <rPr>
@@ -4136,11 +4166,26 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>是做…</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>下，去做…</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「意向形」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本語は「勉強すれば」「勉強するほど」、難しくなる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日语越学越变难了（自动）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「動詞ない形」</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -4150,7 +4195,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>た形</t>
+      <t>で</t>
     </r>
     <r>
       <rPr>
@@ -4160,17 +4205,13 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>+ほうがいい</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞ない形→なく」+て、…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>没…的状</t>
+      <t>、…</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>因</t>
     </r>
     <r>
       <rPr>
@@ -4180,7 +4221,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>态</t>
+      <t>为</t>
     </r>
     <r>
       <rPr>
@@ -4190,26 +4231,144 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>下，去做…</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「意向形」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本語は「勉強すれば」「勉強するほど」、難しくなる</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日语越学越变难了（自动）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>「動詞ない形」</t>
-    </r>
+      <t>不…，所以…</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一边做…一边做…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞連用形」+ながら、…「ます形」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ます形ーます」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ない形ーない」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞連用形」+そうだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起来好像要做…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>強い風が吹いている、木が倒れそうだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚刚做…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>た形+ばかり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音楽を聴きながら、ご飯を食べます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞未然形」+ませんか？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可以做…「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>？」</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强劲的风吹着，树好像要倒了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一边听音乐一边吃饭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池差点没有了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要见你</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>なさそうだ／そうだない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（看起来好像不要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗さんは水泳ができそうだない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗看起来不会游泳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备做…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放任做…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+ておく</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -4219,7 +4378,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>で</t>
+      <t>て形</t>
     </r>
     <r>
       <rPr>
@@ -4229,57 +4388,46 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>、…</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>因</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
+      <t>+やる／あげる／差し上げる</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+貰う／頂く</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+呉れる／下さる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唉…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>習った「ならった」ばかりなのに、忘れてしまった</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>明明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>不…，所以…</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一边做…一边做…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞連用形」+ながら、…「ます形」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「ます形ーます」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「ない形ーない」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作的方向性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>刚学的，怎么忘了</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>て形+てしまう／</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -4289,7 +4437,45 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>て形</t>
+      <t>しまった</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+てみる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>试着做...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食べってみてください</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请你试着吃吃看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做给…看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+てみせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今度「いまど」絶対勝ってみせる「勝つ：かつ」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作的方向性「让」「授受动词」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>动作的方向性</t>
     </r>
     <r>
       <rPr>
@@ -4299,7 +4485,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>+</t>
+      <t>「</t>
     </r>
     <r>
       <rPr>
@@ -4309,62 +4495,432 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>授受动词</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞連用形」+そうだ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>看起来好像要做…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>強い風が吹いている、木が倒れそうだ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚刚做…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>た形+ばかり</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>音楽を聴きながら、ご飯を食べます</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞未然形」+ませんか？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>可以做…「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>吗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
+      <t>「授受动词」</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使役态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>？」</t>
-    </r>
+      <t>+やる／あげる／差し上げる</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使役态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+貰う／頂く</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使役态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+呉れる／下さる</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>これから、貴方に私は簡単な自己紹介をさせてください</t>
+  </si>
+  <si>
+    <t>接下来，请允许您让我简单自我介绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（させてください）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（させていただけませんか）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>これから、簡単な自己紹介</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>させていただきませんか</t>
+    </r>
+  </si>
+  <si>
+    <t>除了…就是…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「名詞」+しか+「動詞ない形」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本の永住許可証「えいじゅきょかしょう」しか、欲しくない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了日本的永居许可证以外，什么都不想要了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>た形+と頃だ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>た形+すえに</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>た形+間は</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>た形+間に</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…期间（正在持续）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…期间（已经结束）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…之后/结果…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いろいろ考えた末に、今回の旅行は行かないと決める「ときめる」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过深思熟虑，这次的旅行决定不去了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>差点…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+も「ても」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>即使…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>どんなに高くて、買います</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论多贵都要买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我走着回去（表示方式）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我读着书，睡着了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台风来了，遭受了损失（灾害）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王…，李…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做…很简单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做…很困难</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞連用形」+やすい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞連用形」+にくい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勉強した難いげど、できたい／できるようになりたい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然学习很难，但是想做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然早退容易，但是不准备做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早退し易いげど、できつもりはない／できないつもり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…不行</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ければならない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’ーる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>言われる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いわれる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>せる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>見させる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>みさせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>たべさせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食べさせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起きさせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>おきさせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>言わせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いわせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>書かせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かかせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>話させる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>はなさせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待たせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>またせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛ばせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>とばせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲ませる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>のませる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泳がせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>およがせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全变成らせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいらせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえらせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰らせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走らせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしらせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑らせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべらせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>減らせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>へらせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>しらせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知らせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散らせる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちらせる</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4372,7 +4928,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4706,6 +5262,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4742,7 +5313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4796,6 +5367,13 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5082,10 +5660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0552E9B1-4AF6-4190-816A-D4AA06C3E222}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5099,10 +5677,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" hidden="1">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="42"/>
+      <c r="C1" s="45"/>
       <c r="D1" s="15" t="s">
         <v>101</v>
       </c>
@@ -5145,468 +5723,719 @@
       <c r="A4" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>612</v>
+      <c r="B4" s="38" t="s">
+        <v>750</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>602</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>756</v>
+      </c>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>667</v>
+        <v>683</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>751</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>755</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="40" t="s">
+        <v>741</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="40" t="s">
+      <c r="E7" s="16" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="40" t="s">
+        <v>686</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>687</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="16" t="s">
-        <v>689</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="40"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="16" t="s">
+    <row r="10" spans="1:6">
+      <c r="B10" s="42" t="s">
+        <v>698</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="40"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="16" t="s">
         <v>665</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B12" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>664</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="39"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="39"/>
+    </row>
+    <row r="15" spans="1:6" hidden="1">
+      <c r="A15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B16" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="39" t="s">
+      <c r="E16" s="16" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="39" t="s">
+        <v>667</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="39" t="s">
+      <c r="C18" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="16" t="s">
+        <v>743</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="16"/>
+      <c r="C22" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="16"/>
+      <c r="C23" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="39" t="s">
         <v>669</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="B17" s="16" t="s">
-        <v>686</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="B18" s="39" t="s">
+      <c r="C24" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="39" t="s">
         <v>670</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19" s="39" t="s">
+      <c r="C25" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="39" t="s">
+        <v>692</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="39" t="s">
+        <v>598</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="40" t="s">
+        <v>701</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="40" t="s">
+        <v>702</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="40" t="s">
+        <v>712</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="40" t="s">
+        <v>715</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="40" t="s">
+        <v>707</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" s="40"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>625</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="B20" s="39" t="s">
-        <v>695</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" s="39" t="s">
-        <v>598</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>625</v>
-      </c>
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" s="39" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="39" t="s">
+      <c r="C35" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C23" s="1" t="s">
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" s="16"/>
+      <c r="C37" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" s="16"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>614</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="B24" s="16" t="s">
-        <v>691</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>614</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" s="39" t="s">
+        <v>680</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44" s="39" t="s">
         <v>675</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" s="39" t="s">
-        <v>681</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="39" t="s">
+      <c r="C44" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" s="40" t="s">
+        <v>728</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" s="39"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="39" t="s">
-        <v>612</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" s="39" t="s">
-        <v>630</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="B34" s="39" t="s">
-        <v>613</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D34" t="s">
-        <v>650</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35" s="16" t="s">
-        <v>656</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="B36" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>619</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>620</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="B37" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>655</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>678</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="B40" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="B43" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="B44" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="B45" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="B47" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="B49" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" s="39" t="s">
+        <v>630</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1">
+      <c r="A51" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="B54" s="39" t="s">
+        <v>613</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D54" t="s">
+        <v>650</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="B56" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="B57" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+    </row>
+    <row r="59" spans="1:5" hidden="1">
+      <c r="A59" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1">
+      <c r="B60" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="B65" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="B67" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="B68" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
+    <row r="69" spans="1:6">
+      <c r="B69" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="C70" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="D70" t="s">
+        <v>727</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="C71" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="D71" t="s">
+        <v>723</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>549</v>
       </c>
     </row>
@@ -5623,8 +6452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB706BB-9B47-4F67-ABB9-318C0EA200AE}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6037,7 +6866,9 @@
       <c r="E12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="12" t="s">
+        <v>235</v>
+      </c>
       <c r="N12" s="1" t="s">
         <v>99</v>
       </c>
@@ -6188,7 +7019,12 @@
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="I19" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>758</v>
+      </c>
       <c r="K19" s="14"/>
       <c r="L19" s="1"/>
     </row>
@@ -6345,7 +7181,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6824,7 +7660,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>760</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>449</v>
@@ -7061,8 +7897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA689D2-DE8A-47BA-B5C1-0C1FB0C30DA0}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7124,8 +7960,12 @@
       <c r="J3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>762</v>
+      </c>
       <c r="N3" s="1" t="s">
         <v>80</v>
       </c>
@@ -7533,7 +8373,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>760</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>449</v>
@@ -7761,6 +8601,725 @@
       <c r="L30" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA33A7AD-435B-4315-8603-E36F04F5DD26}">
+  <dimension ref="A1:Q30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="9" max="9" width="8.88671875" style="12"/>
+    <col min="16" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18">
+      <c r="A2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="K2" s="12"/>
+      <c r="N2" t="s">
+        <v>784</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="18">
+      <c r="A3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" ht="18">
+      <c r="A4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="18">
+      <c r="A5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18">
+      <c r="A6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18">
+      <c r="A7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18">
+      <c r="A8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18">
+      <c r="A9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18">
+      <c r="A10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18">
+      <c r="A11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" ht="18">
+      <c r="A12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="N12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18">
+      <c r="A13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" ht="18">
+      <c r="A15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="I15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="18">
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="18">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" ht="18">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" ht="18">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" ht="18">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" ht="18">
+      <c r="A24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" ht="18">
+      <c r="A25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" ht="18">
+      <c r="A26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" ht="18">
+      <c r="A27" s="4"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" ht="18">
+      <c r="A28" s="14"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" ht="18">
+      <c r="A29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="I29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" ht="18">
+      <c r="A30" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="F30" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E8F136-3B2C-46DD-BB47-9CEA61AAEE9B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7771,7 +9330,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8065,7 +9624,7 @@
       <c r="J11" s="30" t="s">
         <v>562</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="35" t="s">
         <v>582</v>
       </c>
       <c r="L11" s="30" t="s">
@@ -8093,7 +9652,7 @@
       <c r="J12" s="30" t="s">
         <v>563</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="36" t="s">
         <v>582</v>
       </c>
       <c r="L12" s="30" t="s">
@@ -8783,7 +10342,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10229,8 +11788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEC0032-33A3-46FD-B7D0-F15D84CE2972}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10696,10 +12255,10 @@
         <v>45</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>172</v>
+        <v>77</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>78</v>
@@ -10722,25 +12281,19 @@
       <c r="C13" s="9"/>
       <c r="D13" s="20"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18">
+      <c r="F13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="15" spans="1:17" ht="18">
       <c r="A15" s="8" t="s">
@@ -11003,8 +12556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF586AA6-24BF-49C1-A2E2-940A8A4C2A0D}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:Q12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11466,10 +13019,10 @@
         <v>45</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K12" s="12"/>
       <c r="N12" s="1" t="s">
@@ -11493,12 +13046,6 @@
       <c r="C13" s="9"/>
       <c r="D13" s="20"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>187</v>
-      </c>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:17">
@@ -11797,7 +13344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2FCA79-9893-4AA9-B190-A33AECFEDC33}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>

--- a/文法（ぶんぽう）/动词变形规则.xlsx
+++ b/文法（ぶんぽう）/动词变形规则.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65812C6-CB9B-4FA5-AB6E-F214A6CA743F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129B27BC-F8A4-4E8B-BB2D-D5BC08897C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9972" yWindow="348" windowWidth="12876" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="变形粗筋" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="834">
   <si>
     <t>一类动词</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4087,10 +4087,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>だ形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>最好</t>
     </r>
@@ -4922,6 +4918,252 @@
   <si>
     <t>ちらせる</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞連用形」 +くせに</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毎日運動したほうがいい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好还是每天运动吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明明…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼は新入社員のくせに、生意気「なまいき」だ</t>
+  </si>
+  <si>
+    <t>明明是新社员，但是那么任性</t>
+  </si>
+  <si>
+    <r>
+      <t>暫く「しばらく」見ない間</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、随分「ずいぶん」逞しくなった「たくましい」ね</t>
+    </r>
+  </si>
+  <si>
+    <t>没看见你一会（但是现在见到了），怎么变得这么强壮</t>
+  </si>
+  <si>
+    <r>
+      <t>镇痛剂が効いている「きいている」間は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>まだ良かった</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「よかった」、薬が切れると、まだ痛くなった（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状態の接続</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：せつぞく）</t>
+    </r>
+  </si>
+  <si>
+    <t>镇痛剂作用期间还好，一旦药停了之后，现在又疼了</t>
+  </si>
+  <si>
+    <t>作为…的代价/交换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞連用形」 +替わりに「かわりに」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ノードを貸して貰った替わりに、おごり「奢り」ましょう</t>
+  </si>
+  <si>
+    <t>你借给我这个笔记，作为交换的话，我想要请你吃一顿饭</t>
+  </si>
+  <si>
+    <t>この仕事は安定している代わりに、給料「きゅうりょう」が高くない</t>
+  </si>
+  <si>
+    <t>作为这个工作安定的交换，工资并不高</t>
+  </si>
+  <si>
+    <t>既然…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞連用形」 +からには／上は／以上は</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうなった以上、最後までを持つ</t>
+  </si>
+  <si>
+    <t>「名詞」+である+からには／上は／以上は</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然已经到了这个地步，要把责任拿到底。</t>
+  </si>
+  <si>
+    <t>自从…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>結婚して以来、家事「かじ」に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追われる「おわれる」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日々「ひびひび」が続ついている</t>
+    </r>
+  </si>
+  <si>
+    <t>自从结婚以来，每天都过着被家事追着的日子（忙于）</t>
+  </si>
+  <si>
+    <t>直到…才…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+て初めて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+てから／以来／このかた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>病気になって初めて、健康「けんこう」</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大切さが分かった</t>
+    </r>
+  </si>
+  <si>
+    <t>直到生病了，才知道健康的重要性</t>
+  </si>
+  <si>
+    <t>因为…所以(好原因)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为…所以(差原因)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞連用形」+おかげて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「動詞連用形」+せいで</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>貴方のお陰で、私は風邪がか完全に「かんぜんに」治った</t>
+  </si>
+  <si>
+    <t>貴方のせいで、風邪を引いてしまった「へいてしまった」</t>
+  </si>
+  <si>
+    <t>因为你，我的感冒完全好了</t>
+  </si>
+  <si>
+    <t>因为你的原因，我才得感冒了</t>
   </si>
 </sst>
 </file>
@@ -5660,10 +5902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0552E9B1-4AF6-4190-816A-D4AA06C3E222}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5724,34 +5966,34 @@
         <v>660</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="43" t="s">
         <v>754</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>755</v>
       </c>
       <c r="F5" s="15"/>
     </row>
@@ -5766,12 +6008,12 @@
         <v>602</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>661</v>
@@ -5780,662 +6022,796 @@
         <v>595</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>682</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>686</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>687</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="42" t="s">
+        <v>697</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>700</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="40"/>
+      <c r="B11" s="42" t="s">
+        <v>800</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D11" t="s">
+        <v>801</v>
+      </c>
+      <c r="E11" t="s">
+        <v>802</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="16" t="s">
+      <c r="B12" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D12" t="s">
+        <v>809</v>
+      </c>
+      <c r="E12" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="42"/>
+      <c r="D13" t="s">
+        <v>811</v>
+      </c>
+      <c r="E13" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="42" t="s">
+        <v>813</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D14" t="s">
+        <v>815</v>
+      </c>
+      <c r="E14" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="40"/>
+      <c r="C15" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="16" t="s">
+        <v>826</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D16" t="s">
+        <v>830</v>
+      </c>
+      <c r="E16" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D17" t="s">
+        <v>831</v>
+      </c>
+      <c r="E17" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="40"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="16" t="s">
         <v>665</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B19" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="39" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B20" s="39" t="s">
         <v>664</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="39"/>
-    </row>
-    <row r="15" spans="1:6" hidden="1">
-      <c r="A15" s="1" t="s">
+    <row r="21" spans="1:5">
+      <c r="B21" s="39"/>
+    </row>
+    <row r="22" spans="1:5" hidden="1">
+      <c r="A22" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B22" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B23" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="39" t="s">
+      <c r="E23" s="16" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="39" t="s">
         <v>667</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E24" s="16" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="39" t="s">
+        <v>668</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="39" t="s">
-        <v>668</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="1" t="s">
+    <row r="26" spans="1:5">
+      <c r="B26" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="16" t="s">
+      <c r="E26" s="16" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E27" s="16" t="s">
         <v>744</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="16" t="s">
-        <v>719</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="16"/>
-      <c r="C22" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="16"/>
-      <c r="C23" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="39" t="s">
-        <v>669</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="39" t="s">
-        <v>670</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="39" t="s">
-        <v>692</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="39" t="s">
-        <v>598</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="40" t="s">
-        <v>701</v>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="16" t="s">
+        <v>718</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="40" t="s">
+    <row r="29" spans="1:5">
+      <c r="B29" s="16"/>
+      <c r="C29" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="16"/>
+      <c r="C30" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="39" t="s">
+        <v>669</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="39" t="s">
+        <v>670</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" s="39" t="s">
+        <v>691</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" s="39" t="s">
+        <v>598</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" s="40" t="s">
+        <v>700</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="40" t="s">
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" s="40" t="s">
+        <v>701</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" s="40" t="s">
+        <v>711</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="E37" s="16" t="s">
         <v>713</v>
       </c>
-      <c r="E30" s="16" t="s">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="40" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="40" t="s">
+      <c r="C38" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="40" t="s">
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="40" t="s">
+        <v>706</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="B33" s="40"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="40" t="s">
+        <v>818</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D40" t="s">
+        <v>819</v>
+      </c>
+      <c r="E40" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" s="40" t="s">
+        <v>821</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D41" t="s">
+        <v>824</v>
+      </c>
+      <c r="E41" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" s="40"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" s="40"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B44" s="25" t="s">
         <v>625</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" s="39" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35" s="39" t="s">
+      <c r="C45" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D45" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="B47" s="16"/>
+      <c r="C47" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="B49" s="16" t="s">
+        <v>735</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="D49" t="s">
+        <v>805</v>
+      </c>
+      <c r="E49" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="D50" t="s">
+        <v>803</v>
+      </c>
+      <c r="E50" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" s="16"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>614</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36" s="16" t="s">
-        <v>688</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37" s="16"/>
-      <c r="C37" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="B38" s="16" t="s">
-        <v>738</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>733</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="B39" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="B40" s="16" t="s">
-        <v>737</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="B41" s="16"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>614</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="B43" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D43" s="1" t="s">
+    <row r="53" spans="1:5">
+      <c r="B53" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="B44" s="39" t="s">
-        <v>675</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="B45" s="40" t="s">
-        <v>728</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="B46" s="39"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="B48" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="B49" s="39" t="s">
-        <v>612</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="B50" s="39" t="s">
-        <v>630</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1">
-      <c r="A51" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="B54" s="39" t="s">
+        <v>674</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" s="40" t="s">
+        <v>727</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" s="39"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" s="39" t="s">
+        <v>630</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1">
+      <c r="A61" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" s="39" t="s">
         <v>613</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D64" t="s">
         <v>650</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="B55" s="16" t="s">
+    <row r="65" spans="1:6">
+      <c r="B65" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D65" s="19" t="s">
         <v>659</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="B56" s="1" t="s">
+    <row r="66" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="B66" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C66" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D66" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E66" s="19" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="B57" s="1" t="s">
+    <row r="67" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="B67" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C67" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D67" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="E67" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="E57" s="38" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-    </row>
-    <row r="59" spans="1:5" hidden="1">
-      <c r="A59" s="1" t="s">
+    </row>
+    <row r="68" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+    </row>
+    <row r="69" spans="1:6" hidden="1">
+      <c r="A69" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1">
-      <c r="B60" s="1" t="s">
+    <row r="70" spans="1:6" hidden="1">
+      <c r="B70" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1" t="s">
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="B62" s="1" t="s">
+    <row r="72" spans="1:6">
+      <c r="B72" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="B63" s="1" t="s">
+    <row r="73" spans="1:6">
+      <c r="B73" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="B64" s="1" t="s">
+    <row r="74" spans="1:6">
+      <c r="B74" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="B65" s="1" t="s">
+    <row r="75" spans="1:6">
+      <c r="B75" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1" t="s">
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="B67" s="1" t="s">
+    <row r="77" spans="1:6">
+      <c r="B77" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="B68" s="1" t="s">
+    <row r="78" spans="1:6">
+      <c r="B78" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="B69" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="C69" s="7" t="s">
+    <row r="79" spans="1:6">
+      <c r="B79" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="C80" s="7" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="C70" s="7" t="s">
+      <c r="D80" t="s">
+        <v>726</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="C81" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="D70" t="s">
-        <v>727</v>
-      </c>
-      <c r="E70" s="16" t="s">
+      <c r="D81" t="s">
+        <v>722</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="F81" s="16" t="s">
         <v>724</v>
       </c>
-      <c r="F70" s="16" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="C71" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="D71" t="s">
-        <v>723</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>724</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="C72" s="7"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1" t="s">
+    </row>
+    <row r="82" spans="1:6">
+      <c r="C82" s="7"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>549</v>
       </c>
     </row>
@@ -7020,10 +7396,10 @@
         <v>20</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="1"/>
@@ -7660,7 +8036,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>449</v>
@@ -7961,10 +8337,10 @@
         <v>48</v>
       </c>
       <c r="K3" s="16" t="s">
+        <v>760</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>761</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>762</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>80</v>
@@ -8373,7 +8749,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>449</v>
@@ -8641,7 +9017,7 @@
       <c r="D2" s="17"/>
       <c r="K2" s="12"/>
       <c r="N2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="O2" s="16"/>
       <c r="Q2" s="1"/>
@@ -8666,7 +9042,7 @@
         <v>283</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>47</v>
@@ -8675,10 +9051,10 @@
         <v>48</v>
       </c>
       <c r="K3" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>80</v>
@@ -8714,10 +9090,10 @@
         <v>51</v>
       </c>
       <c r="K4" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>62</v>
@@ -8753,10 +9129,10 @@
         <v>116</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>775</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>78</v>
@@ -8765,10 +9141,10 @@
         <v>79</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18">
@@ -8794,10 +9170,10 @@
         <v>55</v>
       </c>
       <c r="K6" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>776</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>777</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>87</v>
@@ -8806,10 +9182,10 @@
         <v>88</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18">
@@ -8843,10 +9219,10 @@
         <v>90</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18">
@@ -8872,10 +9248,10 @@
         <v>59</v>
       </c>
       <c r="K8" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>91</v>
@@ -8884,10 +9260,10 @@
         <v>92</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18">
@@ -8913,10 +9289,10 @@
         <v>61</v>
       </c>
       <c r="K9" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>780</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>781</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>93</v>
@@ -8925,10 +9301,10 @@
         <v>94</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18">
@@ -8948,10 +9324,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>782</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>783</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>95</v>
@@ -8960,10 +9336,10 @@
         <v>96</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18">
@@ -9017,10 +9393,10 @@
         <v>100</v>
       </c>
       <c r="P12" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18">
@@ -9056,10 +9432,10 @@
         <v>69</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18">
@@ -9079,7 +9455,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>586</v>
@@ -9091,10 +9467,10 @@
         <v>71</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18">
@@ -9120,10 +9496,10 @@
         <v>67</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18">
@@ -9316,7 +9692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E8F136-3B2C-46DD-BB47-9CEA61AAEE9B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>

--- a/文法（ぶんぽう）/动词变形规则.xlsx
+++ b/文法（ぶんぽう）/动词变形规则.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129B27BC-F8A4-4E8B-BB2D-D5BC08897C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB5A274-A9A7-443B-B5C6-62877C8230AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9972" yWindow="348" windowWidth="12876" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="变形粗筋" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="838">
   <si>
     <t>一类动词</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4264,10 +4264,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>た形+ばかり</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>音楽を聴きながら、ご飯を食べます</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5164,6 +5160,26 @@
   </si>
   <si>
     <t>因为你的原因，我才得感冒了</t>
+  </si>
+  <si>
+    <t>た形+ばかりだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+てばかりいる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个劲地做…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>うちの息子は毎日テルビを見てばかりいます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们家孩子每天总是看电视</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5904,8 +5920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0552E9B1-4AF6-4190-816A-D4AA06C3E222}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5966,16 +5982,16 @@
         <v>660</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F4" s="15"/>
     </row>
@@ -5984,16 +6000,16 @@
         <v>682</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="43" t="s">
         <v>753</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>754</v>
       </c>
       <c r="F5" s="15"/>
     </row>
@@ -6008,12 +6024,12 @@
         <v>602</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="40" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>661</v>
@@ -6022,7 +6038,7 @@
         <v>595</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6033,10 +6049,10 @@
         <v>681</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6050,106 +6066,106 @@
         <v>686</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="42" t="s">
+        <v>696</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="42" t="s">
+        <v>799</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D11" t="s">
         <v>800</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>801</v>
-      </c>
-      <c r="E11" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="42" t="s">
+        <v>806</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" t="s">
         <v>808</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>809</v>
-      </c>
-      <c r="E12" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="42"/>
       <c r="D13" t="s">
+        <v>810</v>
+      </c>
+      <c r="E13" t="s">
         <v>811</v>
-      </c>
-      <c r="E13" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="42" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D14" t="s">
+        <v>814</v>
+      </c>
+      <c r="E14" t="s">
         <v>816</v>
-      </c>
-      <c r="D14" t="s">
-        <v>815</v>
-      </c>
-      <c r="E14" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="40"/>
       <c r="C15" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="16" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D16" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E16" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="16" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E17" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6163,7 +6179,7 @@
         <v>663</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>603</v>
@@ -6214,7 +6230,7 @@
         <v>165</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6228,7 +6244,7 @@
         <v>179</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6242,7 +6258,7 @@
         <v>167</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6256,41 +6272,41 @@
         <v>166</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="16" t="s">
         <v>743</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="16" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="16"/>
       <c r="C29" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="16"/>
       <c r="C30" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6311,7 +6327,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="B33" s="39" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>597</v>
@@ -6327,90 +6343,101 @@
     </row>
     <row r="35" spans="1:5">
       <c r="B35" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="40" t="s">
+        <v>700</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="40" t="s">
+        <v>710</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="16" t="s">
         <v>712</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" s="40" t="s">
+        <v>713</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="E38" s="16"/>
     </row>
     <row r="39" spans="1:5">
       <c r="B39" s="40" t="s">
+        <v>705</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="B40" s="40" t="s">
+        <v>817</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D40" t="s">
         <v>818</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>819</v>
-      </c>
-      <c r="E40" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="B41" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>822</v>
-      </c>
       <c r="D41" t="s">
+        <v>823</v>
+      </c>
+      <c r="E41" t="s">
         <v>824</v>
       </c>
-      <c r="E41" t="s">
-        <v>825</v>
-      </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="B42" s="40"/>
+      <c r="B42" s="40" t="s">
+        <v>835</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" s="40"/>
@@ -6434,10 +6461,10 @@
         <v>672</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>798</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -6445,55 +6472,55 @@
         <v>687</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>688</v>
+        <v>833</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="B47" s="16"/>
       <c r="C47" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>731</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>732</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="16" t="s">
         <v>738</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="B49" s="16" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D49" t="s">
+        <v>804</v>
+      </c>
+      <c r="E49" t="s">
         <v>805</v>
-      </c>
-      <c r="E49" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="B50" s="16" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D50" t="s">
+        <v>802</v>
+      </c>
+      <c r="E50" t="s">
         <v>803</v>
-      </c>
-      <c r="E50" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6546,16 +6573,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="B55" s="40" t="s">
+        <v>726</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="16" t="s">
         <v>729</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6770,38 +6797,38 @@
     </row>
     <row r="79" spans="1:6">
       <c r="B79" s="16" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="C80" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D80" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="C81" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="D81" t="s">
         <v>721</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="F81" s="16" t="s">
         <v>723</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -7396,10 +7423,10 @@
         <v>20</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="1"/>
@@ -8036,7 +8063,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>449</v>
@@ -8337,10 +8364,10 @@
         <v>48</v>
       </c>
       <c r="K3" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>760</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>761</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>80</v>
@@ -8749,7 +8776,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>449</v>
@@ -9017,7 +9044,7 @@
       <c r="D2" s="17"/>
       <c r="K2" s="12"/>
       <c r="N2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="O2" s="16"/>
       <c r="Q2" s="1"/>
@@ -9042,7 +9069,7 @@
         <v>283</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>47</v>
@@ -9051,10 +9078,10 @@
         <v>48</v>
       </c>
       <c r="K3" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>80</v>
@@ -9090,10 +9117,10 @@
         <v>51</v>
       </c>
       <c r="K4" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>62</v>
@@ -9129,10 +9156,10 @@
         <v>116</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>78</v>
@@ -9141,10 +9168,10 @@
         <v>79</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18">
@@ -9170,10 +9197,10 @@
         <v>55</v>
       </c>
       <c r="K6" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>775</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>776</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>87</v>
@@ -9182,10 +9209,10 @@
         <v>88</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18">
@@ -9219,10 +9246,10 @@
         <v>90</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18">
@@ -9248,10 +9275,10 @@
         <v>59</v>
       </c>
       <c r="K8" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>778</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>91</v>
@@ -9260,10 +9287,10 @@
         <v>92</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18">
@@ -9289,10 +9316,10 @@
         <v>61</v>
       </c>
       <c r="K9" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>779</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>780</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>93</v>
@@ -9301,10 +9328,10 @@
         <v>94</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18">
@@ -9324,10 +9351,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>781</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>782</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>95</v>
@@ -9336,10 +9363,10 @@
         <v>96</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18">
@@ -9393,10 +9420,10 @@
         <v>100</v>
       </c>
       <c r="P12" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18">
@@ -9432,10 +9459,10 @@
         <v>69</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18">
@@ -9455,7 +9482,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>586</v>
@@ -9467,10 +9494,10 @@
         <v>71</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18">
@@ -9496,10 +9523,10 @@
         <v>67</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18">

--- a/文法（ぶんぽう）/动词变形规则.xlsx
+++ b/文法（ぶんぽう）/动词变形规则.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB5A274-A9A7-443B-B5C6-62877C8230AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743A8D79-8B5E-4888-BACC-076DA13DB386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9828" yWindow="720" windowWidth="12876" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="变形粗筋" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="844">
   <si>
     <t>一类动词</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5179,6 +5179,30 @@
   </si>
   <si>
     <t>我们家孩子每天总是看电视</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不…，就不…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+てからでないと…ない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+てからでなければ…ない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳しく「くわしい」お話を伺って「うかが→聞く、訪ねる「たずねる」、尋ねる「たずねる」的尊他语」からでないと、お答えできません</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳しく「くわしい」お話を伺ってからでなければ、お答えできません</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不详细地听完您的意见，我是无法回答您的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5918,10 +5942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0552E9B1-4AF6-4190-816A-D4AA06C3E222}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6440,405 +6464,428 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="B43" s="40"/>
+      <c r="B43" s="40" t="s">
+        <v>838</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D43" t="s">
+        <v>841</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="40"/>
+      <c r="C44" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D44" t="s">
+        <v>842</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B45" s="25" t="s">
         <v>625</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="B45" s="39" t="s">
+    <row r="46" spans="1:5">
+      <c r="B46" s="39" t="s">
         <v>671</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E46" s="16" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="B46" s="16" t="s">
+    <row r="47" spans="1:5">
+      <c r="B47" s="16" t="s">
         <v>687</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="B47" s="16"/>
-      <c r="C47" s="1" t="s">
+    <row r="48" spans="1:5">
+      <c r="B48" s="16"/>
+      <c r="C48" s="1" t="s">
         <v>730</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="B48" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>731</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="B49" s="16" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>732</v>
-      </c>
-      <c r="D49" t="s">
-        <v>804</v>
-      </c>
-      <c r="E49" t="s">
-        <v>805</v>
+        <v>731</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="B50" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="D50" t="s">
+        <v>804</v>
+      </c>
+      <c r="E50" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" s="16" t="s">
         <v>735</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>802</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="B51" s="16"/>
-    </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="16"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B53" s="39" t="s">
         <v>614</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="B53" s="39" t="s">
-        <v>679</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>673</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="B54" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" s="39" t="s">
         <v>674</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="B55" s="40" t="s">
+    <row r="56" spans="1:5">
+      <c r="B56" s="40" t="s">
         <v>726</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E56" s="16" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="B56" s="39"/>
-    </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="39"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="B58" s="1" t="s">
+    <row r="59" spans="1:5">
+      <c r="B59" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="B59" s="39" t="s">
-        <v>612</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="B60" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="39" t="s">
         <v>630</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:5" hidden="1">
+      <c r="A62" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B63" s="39" t="s">
+      <c r="B64" s="39" t="s">
         <v>408</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="B64" s="39" t="s">
-        <v>613</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D64" t="s">
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" s="39" t="s">
+        <v>613</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D65" t="s">
         <v>650</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="B65" s="16" t="s">
+    <row r="66" spans="1:5">
+      <c r="B66" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D66" s="19" t="s">
         <v>659</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="18.600000000000001" customHeight="1">
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="B67" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C67" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D67" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E67" s="19" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="18.600000000000001" customHeight="1">
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="B68" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C68" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D68" s="19" t="s">
         <v>676</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="E68" s="38" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="18.600000000000001" customHeight="1">
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-    </row>
-    <row r="69" spans="1:6" hidden="1">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+    </row>
+    <row r="70" spans="1:5" hidden="1">
+      <c r="A70" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1">
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="1:5" hidden="1">
+      <c r="B71" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="1:5">
+      <c r="B73" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="B73" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>638</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="B74" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="B74" s="1" t="s">
+    <row r="75" spans="1:5">
+      <c r="B75" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="1:5">
+      <c r="B76" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="B77" s="1" t="s">
+    <row r="78" spans="1:5">
+      <c r="B78" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="B78" s="1" t="s">
+    <row r="79" spans="1:5">
+      <c r="B79" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="B79" s="16" t="s">
+    <row r="80" spans="1:5">
+      <c r="B80" s="16" t="s">
         <v>716</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>718</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="C80" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="D80" t="s">
-        <v>725</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>722</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="C81" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D81" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>722</v>
       </c>
       <c r="F81" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="C82" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="D82" t="s">
+        <v>721</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="F82" s="16" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="C82" s="7"/>
-    </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="1" t="s">
+      <c r="C83" s="7"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>549</v>
       </c>
     </row>

--- a/文法（ぶんぽう）/动词变形规则.xlsx
+++ b/文法（ぶんぽう）/动词变形规则.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743A8D79-8B5E-4888-BACC-076DA13DB386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D616D0-3C0F-4ECF-8E4F-894C781FDBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9828" yWindow="720" windowWidth="12876" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="变形粗筋" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="871">
   <si>
     <t>一类动词</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3864,14 +3864,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>「動詞連用形」+そうになる</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞連用形」+たい</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>不做…</t>
     </r>
@@ -4236,19 +4228,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>「動詞連用形」+ながら、…「ます形」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>「ます形ーます」</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>「ない形ーない」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞連用形」+そうだ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4720,14 +4704,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>「動詞連用形」+やすい</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞連用形」+にくい</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>勉強した難いげど、できたい／できるようになりたい</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4913,10 +4889,6 @@
   </si>
   <si>
     <t>ちらせる</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞連用形」 +くせに</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5024,10 +4996,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>「動詞連用形」 +替わりに「かわりに」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ノードを貸して貰った替わりに、おごり「奢り」ましょう</t>
   </si>
   <si>
@@ -5041,10 +5009,6 @@
   </si>
   <si>
     <t>既然…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞連用形」 +からには／上は／以上は</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5142,14 +5106,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>「動詞連用形」+おかげて</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>「動詞連用形」+せいで</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>貴方のお陰で、私は風邪がか完全に「かんぜんに」治った</t>
   </si>
   <si>
@@ -5203,6 +5159,187 @@
   </si>
   <si>
     <t>如果不详细地听完您的意见，我是无法回答您的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ます形」+やすい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ます形」+にくい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ます形」+たい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ます形」+そうになる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ます形」+ながら、…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ます形」+そうだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ます形」 +くせに</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ます形」 +替わりに「かわりに」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ます形」+きる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彻底地做…，完全地做…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本にいた時、日本語もわからないし、友達はもいないので、困り切っていた</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在日本的时候，不会日语，也没有朋友，真是一筹莫展</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ます形」 +からには／上は／以上は</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ます形」+おかげて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ます形」+せいで</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ます形」+はしない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ます形」+もしない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再也不做…了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连…都不做就…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歯を磨「みが」きもしない、寝てしました</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>牙都不刷就睡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>觉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>了</t>
+    </r>
+  </si>
+  <si>
+    <t>私は噓なんかつきはしません「つくる」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我绝不会撒谎</t>
+  </si>
+  <si>
+    <t>て形+たまらない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+ならない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+てしかたがない／てしょうがない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…得不得了(非常)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>息子「むすこ」が大学に合格「ごうかく」して、嬉しくてかたがない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>息子「むすこ」が大学に合格「ごうかく」して、嬉しくてならない</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>息子「むすこ」が大学に合格「ごうかく」して、嬉しくてたまらない「うれしい」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿子考上了大学，高兴地不得了</t>
+  </si>
+  <si>
+    <t>さっき晩御飯を食べたばかりです</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>さっき晩御飯を食べたと頃です</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚吃完晚饭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+ほしい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望对方做…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬休みが早く来て欲しいですね</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望寒假能早点到来</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5210,7 +5347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5559,6 +5696,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5595,7 +5739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5662,6 +5806,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5942,10 +6088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0552E9B1-4AF6-4190-816A-D4AA06C3E222}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6006,886 +6152,995 @@
         <v>660</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>744</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>748</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>755</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>754</v>
       </c>
       <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>751</v>
+        <v>834</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="1:6" ht="36">
+      <c r="B6" s="38" t="s">
+        <v>842</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>844</v>
+      </c>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="39" t="s">
         <v>612</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="40" t="s">
-        <v>739</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>595</v>
-      </c>
       <c r="E7" s="16" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="40" t="s">
-        <v>680</v>
+        <v>735</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>681</v>
+        <v>836</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>688</v>
+        <v>595</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="40" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>686</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="42" t="s">
-        <v>696</v>
+      <c r="B10" s="40" t="s">
+        <v>681</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>698</v>
+        <v>838</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="42" t="s">
-        <v>799</v>
+        <v>692</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D11" t="s">
-        <v>800</v>
-      </c>
-      <c r="E11" t="s">
-        <v>801</v>
+        <v>691</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="42" t="s">
+        <v>792</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D12" t="s">
+        <v>793</v>
+      </c>
+      <c r="E12" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="42" t="s">
+        <v>799</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D13" t="s">
+        <v>800</v>
+      </c>
+      <c r="E13" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="42"/>
+      <c r="D14" t="s">
+        <v>802</v>
+      </c>
+      <c r="E14" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D15" t="s">
+        <v>805</v>
+      </c>
+      <c r="E15" t="s">
         <v>807</v>
       </c>
-      <c r="D12" t="s">
-        <v>808</v>
-      </c>
-      <c r="E12" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="42"/>
-      <c r="D13" t="s">
-        <v>810</v>
-      </c>
-      <c r="E13" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="42" t="s">
-        <v>812</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="D14" t="s">
-        <v>814</v>
-      </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="40"/>
+      <c r="C16" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="40" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="40"/>
-      <c r="C15" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="16" t="s">
-        <v>825</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="D16" t="s">
-        <v>829</v>
-      </c>
-      <c r="E16" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="B17" s="16" t="s">
-        <v>826</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="D17" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="E17" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="40"/>
+      <c r="B18" s="46" t="s">
+        <v>817</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D18" t="s">
+        <v>819</v>
+      </c>
+      <c r="E18" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="16" t="s">
-        <v>665</v>
-      </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="46" t="s">
+        <v>850</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D19" t="s">
+        <v>854</v>
+      </c>
+      <c r="E19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="40" t="s">
+        <v>851</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D20" t="s">
+        <v>852</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="40"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="16" t="s">
         <v>663</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B22" s="39" t="s">
+        <v>661</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>603</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>664</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" s="39"/>
-    </row>
-    <row r="22" spans="1:5" hidden="1">
-      <c r="A22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>662</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="39"/>
+    </row>
+    <row r="25" spans="1:5" hidden="1">
+      <c r="A25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B26" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="B24" s="39" t="s">
+      <c r="E26" s="16" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="39" t="s">
+        <v>665</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="39" t="s">
+        <v>666</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="16"/>
+      <c r="C32" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="16"/>
+      <c r="C33" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="39" t="s">
         <v>667</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25" s="39" t="s">
+      <c r="C34" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="16" t="s">
-        <v>741</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="40" t="s">
+        <v>868</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="39" t="s">
+        <v>686</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="39" t="s">
+        <v>598</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="40" t="s">
+        <v>695</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="40" t="s">
+        <v>696</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="40" t="s">
+        <v>706</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="40" t="s">
+        <v>709</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" s="16"/>
-      <c r="C29" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="16"/>
-      <c r="C30" s="1" t="s">
+    <row r="43" spans="2:5">
+      <c r="B43" s="40" t="s">
+        <v>701</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" s="39" t="s">
+      <c r="D43" t="s">
+        <v>809</v>
+      </c>
+      <c r="E43" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="40" t="s">
+        <v>808</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D44" t="s">
+        <v>814</v>
+      </c>
+      <c r="E44" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="40" t="s">
+        <v>811</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="40" t="s">
+        <v>824</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D46" t="s">
+        <v>830</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="40" t="s">
+        <v>827</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D47" t="s">
+        <v>831</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="40"/>
+      <c r="C48" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D48" t="s">
+        <v>862</v>
+      </c>
+      <c r="E48" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="B49" s="40"/>
+      <c r="C49" s="16" t="s">
+        <v>856</v>
+      </c>
+      <c r="D49" t="s">
+        <v>861</v>
+      </c>
+      <c r="E49" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" s="40" t="s">
+        <v>859</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D50" t="s">
+        <v>860</v>
+      </c>
+      <c r="E50" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" s="40"/>
+      <c r="C51" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="25" t="s">
+        <v>625</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53" s="39" t="s">
         <v>669</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="B32" s="39" t="s">
+      <c r="C53" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="B33" s="39" t="s">
-        <v>690</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="B34" s="39" t="s">
-        <v>598</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35" s="40" t="s">
-        <v>699</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36" s="40" t="s">
-        <v>700</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37" s="40" t="s">
-        <v>710</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="B38" s="40" t="s">
-        <v>713</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="B39" s="40" t="s">
-        <v>705</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="B40" s="40" t="s">
-        <v>817</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="D53" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="B54" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="D40" t="s">
-        <v>818</v>
-      </c>
-      <c r="E40" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="B41" s="40" t="s">
-        <v>820</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="D41" t="s">
-        <v>823</v>
-      </c>
-      <c r="E41" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" s="40" t="s">
-        <v>835</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="B43" s="40" t="s">
-        <v>838</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="D43" t="s">
-        <v>841</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="B44" s="40"/>
-      <c r="C44" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="D44" t="s">
-        <v>842</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>625</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="B46" s="39" t="s">
-        <v>671</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="D54" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" s="16"/>
+      <c r="C55" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="D56" t="s">
         <v>797</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E56" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="B47" s="16" t="s">
-        <v>687</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="B48" s="16"/>
-      <c r="C48" s="1" t="s">
+    <row r="57" spans="1:5">
+      <c r="B57" s="16" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="B49" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="C49" s="16" t="s">
+      <c r="C57" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="D57" t="s">
+        <v>795</v>
+      </c>
+      <c r="E57" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" s="16" t="s">
         <v>731</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="B50" s="16" t="s">
-        <v>734</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>732</v>
-      </c>
-      <c r="D50" t="s">
-        <v>804</v>
-      </c>
-      <c r="E50" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="B51" s="16" t="s">
-        <v>735</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>733</v>
-      </c>
-      <c r="D51" t="s">
-        <v>802</v>
-      </c>
-      <c r="E51" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="B52" s="16"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
+      <c r="C58" s="16" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B53" s="39" t="s">
-        <v>614</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="B59" s="16"/>
+      <c r="D59" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>626</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="B54" s="39" t="s">
-        <v>679</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="B55" s="39" t="s">
-        <v>674</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="B56" s="40" t="s">
-        <v>726</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="B57" s="39"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="B59" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="B60" s="39" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>610</v>
+        <v>671</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="B61" s="39" t="s">
-        <v>630</v>
+        <v>677</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1">
-      <c r="A62" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>363</v>
+        <v>671</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" s="39" t="s">
+        <v>672</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>653</v>
+        <v>676</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" s="40" t="s">
+        <v>722</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64" s="39"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1">
+      <c r="A68" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>630</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="B69" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B64" s="39" t="s">
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="B65" s="39" t="s">
+      <c r="D71" t="s">
+        <v>650</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="B72" s="39" t="s">
         <v>613</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D65" t="s">
-        <v>650</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="B66" s="16" t="s">
+      <c r="D72" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="B73" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D66" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="B67" s="1" t="s">
+      <c r="D73" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="B74" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C74" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>620</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="B68" s="1" t="s">
+      <c r="D74" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="B75" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C75" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="D68" s="19" t="s">
-        <v>676</v>
-      </c>
-      <c r="E68" s="38" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-    </row>
-    <row r="70" spans="1:5" hidden="1">
-      <c r="A70" s="1" t="s">
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+    </row>
+    <row r="76" spans="1:5" hidden="1">
+      <c r="A76" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C76" s="19"/>
+    </row>
+    <row r="77" spans="1:5" hidden="1">
+      <c r="B77" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1">
-      <c r="B71" s="1" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>605</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="B73" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="B74" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="B75" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="B76" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="B78" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="B79" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="B81" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="B82" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="B84" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="B85" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="B86" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="B80" s="16" t="s">
+    <row r="87" spans="1:6">
+      <c r="B87" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="D87" t="s">
+        <v>721</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="C88" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="D88" t="s">
+        <v>717</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="C89" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="C81" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="D81" t="s">
-        <v>725</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>722</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="C82" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="D82" t="s">
-        <v>721</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>722</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="C83" s="7"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1" t="s">
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C90" s="7"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="B91" s="1" t="s">
         <v>549</v>
       </c>
     </row>
@@ -7470,10 +7725,10 @@
         <v>20</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="1"/>
@@ -8110,7 +8365,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>449</v>
@@ -8411,10 +8666,10 @@
         <v>48</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>80</v>
@@ -8823,7 +9078,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>449</v>
@@ -9091,7 +9346,7 @@
       <c r="D2" s="17"/>
       <c r="K2" s="12"/>
       <c r="N2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="O2" s="16"/>
       <c r="Q2" s="1"/>
@@ -9116,7 +9371,7 @@
         <v>283</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>47</v>
@@ -9125,10 +9380,10 @@
         <v>48</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>80</v>
@@ -9164,10 +9419,10 @@
         <v>51</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>62</v>
@@ -9203,10 +9458,10 @@
         <v>116</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>78</v>
@@ -9215,10 +9470,10 @@
         <v>79</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18">
@@ -9244,10 +9499,10 @@
         <v>55</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>87</v>
@@ -9256,10 +9511,10 @@
         <v>88</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18">
@@ -9293,10 +9548,10 @@
         <v>90</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18">
@@ -9322,10 +9577,10 @@
         <v>59</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>91</v>
@@ -9334,10 +9589,10 @@
         <v>92</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18">
@@ -9363,10 +9618,10 @@
         <v>61</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>93</v>
@@ -9375,10 +9630,10 @@
         <v>94</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18">
@@ -9398,10 +9653,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>95</v>
@@ -9410,10 +9665,10 @@
         <v>96</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18">
@@ -9467,10 +9722,10 @@
         <v>100</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18">
@@ -9506,10 +9761,10 @@
         <v>69</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18">
@@ -9529,7 +9784,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>586</v>
@@ -9541,10 +9796,10 @@
         <v>71</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18">
@@ -9570,10 +9825,10 @@
         <v>67</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18">

--- a/文法（ぶんぽう）/动词变形规则.xlsx
+++ b/文法（ぶんぽう）/动词变形规则.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\文法（ぶんぽう）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D616D0-3C0F-4ECF-8E4F-894C781FDBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EDACE1-ADC9-4AA4-AB58-07E1990C365A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9804" yWindow="0" windowWidth="12876" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="变形粗筋" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="875">
   <si>
     <t>一类动词</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5341,6 +5341,20 @@
   <si>
     <t>希望寒假能早点到来</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就当做…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>た形+つもり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死んだつもりで、一生懸命やりましょう</t>
+  </si>
+  <si>
+    <t>就当做已经死掉了，努力做吧</t>
   </si>
 </sst>
 </file>
@@ -5800,14 +5814,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6088,10 +6102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0552E9B1-4AF6-4190-816A-D4AA06C3E222}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6105,10 +6119,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" hidden="1">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="45"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="15" t="s">
         <v>101</v>
       </c>
@@ -6340,7 +6354,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="44" t="s">
         <v>817</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -6354,7 +6368,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="44" t="s">
         <v>850</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -6377,7 +6391,7 @@
       <c r="D20" t="s">
         <v>852</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="45" t="s">
         <v>853</v>
       </c>
     </row>
@@ -6824,323 +6838,337 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="16" t="s">
+        <v>871</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>872</v>
+      </c>
+      <c r="D59" t="s">
+        <v>873</v>
+      </c>
+      <c r="E59" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="D59" s="1" t="s">
+      <c r="B60" s="16"/>
+      <c r="D60" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>626</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="B60" s="39" t="s">
-        <v>614</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="B61" s="39" t="s">
-        <v>677</v>
+        <v>614</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>671</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="B62" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" s="39" t="s">
         <v>672</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E63" s="16" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="B63" s="40" t="s">
+    <row r="64" spans="1:5">
+      <c r="B64" s="40" t="s">
         <v>722</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B64" s="39"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="B65" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>673</v>
-      </c>
+      <c r="B65" s="39"/>
     </row>
     <row r="66" spans="1:5">
       <c r="B66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="B67" s="39" t="s">
+    <row r="68" spans="1:5">
+      <c r="B68" s="39" t="s">
         <v>612</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:5" hidden="1">
+      <c r="A69" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B69" s="39" t="s">
         <v>630</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="B69" s="1" t="s">
+    <row r="70" spans="1:5">
+      <c r="B70" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="s">
         <v>407</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="B71" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D71" t="s">
-        <v>650</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="B72" s="39" t="s">
-        <v>613</v>
+        <v>408</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" t="s">
+        <v>650</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="B73" s="39" t="s">
+        <v>613</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D73" s="19" t="s">
         <v>659</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="B73" s="16" t="s">
+    <row r="74" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="B74" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D74" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E74" s="19" t="s">
         <v>621</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="B74" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>619</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>674</v>
-      </c>
-      <c r="E74" s="38" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.600000000000001" customHeight="1">
       <c r="B75" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="B76" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C76" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-    </row>
-    <row r="76" spans="1:5" hidden="1">
-      <c r="A76" s="1" t="s">
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+    </row>
+    <row r="77" spans="1:5" hidden="1">
+      <c r="A77" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C76" s="19"/>
-    </row>
-    <row r="77" spans="1:5" hidden="1">
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="19"/>
+    </row>
+    <row r="78" spans="1:5" hidden="1">
+      <c r="B78" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>605</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="B79" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="B80" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="B81" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>638</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="B82" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="B83" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>643</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="B84" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="B85" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="B86" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="B87" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="B87" s="16" t="s">
+    <row r="88" spans="1:6">
+      <c r="B88" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>721</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="F87" s="16" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="C88" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="D88" t="s">
-        <v>717</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>718</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="C89" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="D89" t="s">
+        <v>717</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="C90" s="7" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C90" s="7"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="7"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="B92" s="1" t="s">
         <v>549</v>
       </c>
     </row>
@@ -10035,7 +10063,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
